--- a/natmiOut/OldD4/LR-pairs_lrc2p/Thbs2-Notch3.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Thbs2-Notch3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -80,6 +80,12 @@
   </si>
   <si>
     <t>FAPs</t>
+  </si>
+  <si>
+    <t>M1</t>
+  </si>
+  <si>
+    <t>M2</t>
   </si>
   <si>
     <t>sCs</t>
@@ -446,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T10"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.69647268361682</v>
+        <v>0.9785166666666667</v>
       </c>
       <c r="H2">
-        <v>0.69647268361682</v>
+        <v>2.93555</v>
       </c>
       <c r="I2">
-        <v>0.004007972948698757</v>
+        <v>0.005150408549089733</v>
       </c>
       <c r="J2">
-        <v>0.004007972948698757</v>
+        <v>0.005259892016175551</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>6.70468916187764</v>
+        <v>8.819868333333334</v>
       </c>
       <c r="N2">
-        <v>6.70468916187764</v>
+        <v>26.459605</v>
       </c>
       <c r="O2">
-        <v>0.0466399255592423</v>
+        <v>0.06009452733181694</v>
       </c>
       <c r="P2">
-        <v>0.0466399255592423</v>
+        <v>0.08592393201160566</v>
       </c>
       <c r="Q2">
-        <v>4.669632853389528</v>
+        <v>8.630388161972222</v>
       </c>
       <c r="R2">
-        <v>4.669632853389528</v>
+        <v>77.67349345775</v>
       </c>
       <c r="S2">
-        <v>0.0001869315599707669</v>
+        <v>0.0003095113673232966</v>
       </c>
       <c r="T2">
-        <v>0.0001869315599707669</v>
+        <v>0.0004519506039862554</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -581,61 +587,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.69647268361682</v>
+        <v>0.9785166666666667</v>
       </c>
       <c r="H3">
-        <v>0.69647268361682</v>
+        <v>2.93555</v>
       </c>
       <c r="I3">
-        <v>0.004007972948698757</v>
+        <v>0.005150408549089733</v>
       </c>
       <c r="J3">
-        <v>0.004007972948698757</v>
+        <v>0.005259892016175551</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>5.10002533935425</v>
+        <v>5.485874</v>
       </c>
       <c r="N3">
-        <v>5.10002533935425</v>
+        <v>16.457622</v>
       </c>
       <c r="O3">
-        <v>0.0354773795525396</v>
+        <v>0.03737822295894862</v>
       </c>
       <c r="P3">
-        <v>0.0354773795525396</v>
+        <v>0.05344386636915803</v>
       </c>
       <c r="Q3">
-        <v>3.552028334613838</v>
+        <v>5.368019140233334</v>
       </c>
       <c r="R3">
-        <v>3.552028334613838</v>
+        <v>48.31217226210001</v>
       </c>
       <c r="S3">
-        <v>0.0001421923775372971</v>
+        <v>0.0001925131190775511</v>
       </c>
       <c r="T3">
-        <v>0.0001421923775372971</v>
+        <v>0.0002811089660286873</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -643,185 +649,185 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.69647268361682</v>
+        <v>0.9785166666666667</v>
       </c>
       <c r="H4">
-        <v>0.69647268361682</v>
+        <v>2.93555</v>
       </c>
       <c r="I4">
-        <v>0.004007972948698757</v>
+        <v>0.005150408549089733</v>
       </c>
       <c r="J4">
-        <v>0.004007972948698757</v>
+        <v>0.005259892016175551</v>
       </c>
       <c r="K4">
         <v>1</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>131.949570727232</v>
+        <v>0.06916233333333334</v>
       </c>
       <c r="N4">
-        <v>131.949570727232</v>
+        <v>0.207487</v>
       </c>
       <c r="O4">
-        <v>0.9178826948882181</v>
+        <v>0.0004712403375823903</v>
       </c>
       <c r="P4">
-        <v>0.9178826948882181</v>
+        <v>0.0006737855263255828</v>
       </c>
       <c r="Q4">
-        <v>91.89927162648266</v>
+        <v>0.06767649587222223</v>
       </c>
       <c r="R4">
-        <v>91.89927162648266</v>
+        <v>0.6090884628500001</v>
       </c>
       <c r="S4">
-        <v>0.003678849011190693</v>
+        <v>2.427080263360275E-06</v>
       </c>
       <c r="T4">
-        <v>0.003678849011190693</v>
+        <v>3.544039110534574E-06</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" t="s">
-        <v>20</v>
-      </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>161.709841340609</v>
+        <v>0.9785166666666667</v>
       </c>
       <c r="H5">
-        <v>161.709841340609</v>
+        <v>2.93555</v>
       </c>
       <c r="I5">
-        <v>0.930587350914844</v>
+        <v>0.005150408549089733</v>
       </c>
       <c r="J5">
-        <v>0.930587350914844</v>
+        <v>0.005259892016175551</v>
       </c>
       <c r="K5">
         <v>1</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>6.70468916187764</v>
+        <v>0.03413666666666667</v>
       </c>
       <c r="N5">
-        <v>6.70468916187764</v>
+        <v>0.10241</v>
       </c>
       <c r="O5">
-        <v>0.0466399255592423</v>
+        <v>0.0002325915501781441</v>
       </c>
       <c r="P5">
-        <v>0.0466399255592423</v>
+        <v>0.0003325624051193711</v>
       </c>
       <c r="Q5">
-        <v>1084.214220605334</v>
+        <v>0.03340329727777778</v>
       </c>
       <c r="R5">
-        <v>1084.214220605334</v>
+        <v>0.3006296755</v>
       </c>
       <c r="S5">
-        <v>0.04340252477304082</v>
+        <v>1.197941508483547E-06</v>
       </c>
       <c r="T5">
-        <v>0.04340252477304082</v>
+        <v>1.749242339567519E-06</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
         <v>24</v>
       </c>
-      <c r="D6" t="s">
-        <v>21</v>
-      </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>161.709841340609</v>
+        <v>0.9785166666666667</v>
       </c>
       <c r="H6">
-        <v>161.709841340609</v>
+        <v>2.93555</v>
       </c>
       <c r="I6">
-        <v>0.930587350914844</v>
+        <v>0.005150408549089733</v>
       </c>
       <c r="J6">
-        <v>0.930587350914844</v>
+        <v>0.005259892016175551</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>5.10002533935425</v>
+        <v>132.35754</v>
       </c>
       <c r="N6">
-        <v>5.10002533935425</v>
+        <v>264.71508</v>
       </c>
       <c r="O6">
-        <v>0.0354773795525396</v>
+        <v>0.9018234178214739</v>
       </c>
       <c r="P6">
-        <v>0.0354773795525396</v>
+        <v>0.8596258536877913</v>
       </c>
       <c r="Q6">
-        <v>824.7242884600613</v>
+        <v>129.514058849</v>
       </c>
       <c r="R6">
-        <v>824.7242884600613</v>
+        <v>777.084353094</v>
       </c>
       <c r="S6">
-        <v>0.03301480065519828</v>
+        <v>0.004644759040917041</v>
       </c>
       <c r="T6">
-        <v>0.03301480065519828</v>
+        <v>0.004521539164710505</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -829,247 +835,1239 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>161.709841340609</v>
+        <v>177.042969</v>
       </c>
       <c r="H7">
-        <v>161.709841340609</v>
+        <v>531.128907</v>
       </c>
       <c r="I7">
-        <v>0.930587350914844</v>
+        <v>0.9318631477172884</v>
       </c>
       <c r="J7">
-        <v>0.930587350914844</v>
+        <v>0.9516719856549357</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>131.949570727232</v>
+        <v>8.819868333333334</v>
       </c>
       <c r="N7">
-        <v>131.949570727232</v>
+        <v>26.459605</v>
       </c>
       <c r="O7">
-        <v>0.9178826948882181</v>
+        <v>0.06009452733181694</v>
       </c>
       <c r="P7">
-        <v>0.9178826948882181</v>
+        <v>0.08592393201160566</v>
       </c>
       <c r="Q7">
-        <v>21337.54414726215</v>
+        <v>1561.495675922415</v>
       </c>
       <c r="R7">
-        <v>21337.54414726215</v>
+        <v>14053.46108330174</v>
       </c>
       <c r="S7">
-        <v>0.8541700254866049</v>
+        <v>0.05599987540000955</v>
       </c>
       <c r="T7">
-        <v>0.8541700254866049</v>
+        <v>0.08177139899276445</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>11.3654884633482</v>
+        <v>177.042969</v>
       </c>
       <c r="H8">
-        <v>11.3654884633482</v>
+        <v>531.128907</v>
       </c>
       <c r="I8">
-        <v>0.06540467613645728</v>
+        <v>0.9318631477172884</v>
       </c>
       <c r="J8">
-        <v>0.06540467613645728</v>
+        <v>0.9516719856549357</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>6.70468916187764</v>
+        <v>5.485874</v>
       </c>
       <c r="N8">
-        <v>6.70468916187764</v>
+        <v>16.457622</v>
       </c>
       <c r="O8">
-        <v>0.0466399255592423</v>
+        <v>0.03737822295894862</v>
       </c>
       <c r="P8">
-        <v>0.0466399255592423</v>
+        <v>0.05344386636915803</v>
       </c>
       <c r="Q8">
-        <v>76.20206731965604</v>
+        <v>971.235420519906</v>
       </c>
       <c r="R8">
-        <v>76.20206731965604</v>
+        <v>8741.118784679154</v>
       </c>
       <c r="S8">
-        <v>0.003050469226230719</v>
+        <v>0.03483138850260448</v>
       </c>
       <c r="T8">
-        <v>0.003050469226230719</v>
+        <v>0.05086103042861366</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" t="s">
         <v>22</v>
       </c>
-      <c r="B9" t="s">
-        <v>23</v>
-      </c>
-      <c r="C9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" t="s">
-        <v>21</v>
-      </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>11.3654884633482</v>
+        <v>177.042969</v>
       </c>
       <c r="H9">
-        <v>11.3654884633482</v>
+        <v>531.128907</v>
       </c>
       <c r="I9">
-        <v>0.06540467613645728</v>
+        <v>0.9318631477172884</v>
       </c>
       <c r="J9">
-        <v>0.06540467613645728</v>
+        <v>0.9516719856549357</v>
       </c>
       <c r="K9">
         <v>1</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M9">
-        <v>5.10002533935425</v>
+        <v>0.06916233333333334</v>
       </c>
       <c r="N9">
-        <v>5.10002533935425</v>
+        <v>0.207487</v>
       </c>
       <c r="O9">
-        <v>0.0354773795525396</v>
+        <v>0.0004712403375823903</v>
       </c>
       <c r="P9">
-        <v>0.0354773795525396</v>
+        <v>0.0006737855263255828</v>
       </c>
       <c r="Q9">
-        <v>57.96427915721421</v>
+        <v>12.244704836301</v>
       </c>
       <c r="R9">
-        <v>57.96427915721421</v>
+        <v>110.202343526709</v>
       </c>
       <c r="S9">
-        <v>0.002320386519804024</v>
+        <v>0.0004391315043108838</v>
       </c>
       <c r="T9">
-        <v>0.002320386519804024</v>
+        <v>0.0006412228097438234</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" t="s">
+        <v>23</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>177.042969</v>
+      </c>
+      <c r="H10">
+        <v>531.128907</v>
+      </c>
+      <c r="I10">
+        <v>0.9318631477172884</v>
+      </c>
+      <c r="J10">
+        <v>0.9516719856549357</v>
+      </c>
+      <c r="K10">
+        <v>1</v>
+      </c>
+      <c r="L10">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M10">
+        <v>0.03413666666666667</v>
+      </c>
+      <c r="N10">
+        <v>0.10241</v>
+      </c>
+      <c r="O10">
+        <v>0.0002325915501781441</v>
+      </c>
+      <c r="P10">
+        <v>0.0003325624051193711</v>
+      </c>
+      <c r="Q10">
+        <v>6.043656818430001</v>
+      </c>
+      <c r="R10">
+        <v>54.39291136587001</v>
+      </c>
+      <c r="S10">
+        <v>0.000216743494081449</v>
+      </c>
+      <c r="T10">
+        <v>0.000316490324434133</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
+        <v>24</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>177.042969</v>
+      </c>
+      <c r="H11">
+        <v>531.128907</v>
+      </c>
+      <c r="I11">
+        <v>0.9318631477172884</v>
+      </c>
+      <c r="J11">
+        <v>0.9516719856549357</v>
+      </c>
+      <c r="K11">
+        <v>2</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>132.35754</v>
+      </c>
+      <c r="N11">
+        <v>264.71508</v>
+      </c>
+      <c r="O11">
+        <v>0.9018234178214739</v>
+      </c>
+      <c r="P11">
+        <v>0.8596258536877913</v>
+      </c>
+      <c r="Q11">
+        <v>23432.97185113626</v>
+      </c>
+      <c r="R11">
+        <v>140597.8311068176</v>
+      </c>
+      <c r="S11">
+        <v>0.840376008816282</v>
+      </c>
+      <c r="T11">
+        <v>0.8180818430993796</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
         <v>22</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" t="s">
+        <v>20</v>
+      </c>
+      <c r="E12">
+        <v>2</v>
+      </c>
+      <c r="F12">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G12">
+        <v>0.06082233333333334</v>
+      </c>
+      <c r="H12">
+        <v>0.182467</v>
+      </c>
+      <c r="I12">
+        <v>0.0003201374858976194</v>
+      </c>
+      <c r="J12">
+        <v>0.0003269427250482888</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>8.819868333333334</v>
+      </c>
+      <c r="N12">
+        <v>26.459605</v>
+      </c>
+      <c r="O12">
+        <v>0.06009452733181694</v>
+      </c>
+      <c r="P12">
+        <v>0.08592393201160566</v>
+      </c>
+      <c r="Q12">
+        <v>0.5364449717261112</v>
+      </c>
+      <c r="R12">
+        <v>4.828004745535001</v>
+      </c>
+      <c r="S12">
+        <v>1.923851089621364E-05</v>
+      </c>
+      <c r="T12">
+        <v>2.809220447873825E-05</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="F13">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G13">
+        <v>0.06082233333333334</v>
+      </c>
+      <c r="H13">
+        <v>0.182467</v>
+      </c>
+      <c r="I13">
+        <v>0.0003201374858976194</v>
+      </c>
+      <c r="J13">
+        <v>0.0003269427250482888</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>5.485874</v>
+      </c>
+      <c r="N13">
+        <v>16.457622</v>
+      </c>
+      <c r="O13">
+        <v>0.03737822295894862</v>
+      </c>
+      <c r="P13">
+        <v>0.05344386636915803</v>
+      </c>
+      <c r="Q13">
+        <v>0.3336636570526667</v>
+      </c>
+      <c r="R13">
+        <v>3.002972913474</v>
+      </c>
+      <c r="S13">
+        <v>1.196617032539848E-05</v>
+      </c>
+      <c r="T13">
+        <v>1.747308330784912E-05</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" t="s">
+        <v>22</v>
+      </c>
+      <c r="E14">
+        <v>2</v>
+      </c>
+      <c r="F14">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G14">
+        <v>0.06082233333333334</v>
+      </c>
+      <c r="H14">
+        <v>0.182467</v>
+      </c>
+      <c r="I14">
+        <v>0.0003201374858976194</v>
+      </c>
+      <c r="J14">
+        <v>0.0003269427250482888</v>
+      </c>
+      <c r="K14">
+        <v>1</v>
+      </c>
+      <c r="L14">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M14">
+        <v>0.06916233333333334</v>
+      </c>
+      <c r="N14">
+        <v>0.207487</v>
+      </c>
+      <c r="O14">
+        <v>0.0004712403375823903</v>
+      </c>
+      <c r="P14">
+        <v>0.0006737855263255828</v>
+      </c>
+      <c r="Q14">
+        <v>0.004206614492111112</v>
+      </c>
+      <c r="R14">
+        <v>0.037859530429</v>
+      </c>
+      <c r="S14">
+        <v>1.508616969271718E-07</v>
+      </c>
+      <c r="T14">
+        <v>2.202892760749816E-07</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
         <v>23</v>
       </c>
-      <c r="C10" t="s">
+      <c r="E15">
+        <v>2</v>
+      </c>
+      <c r="F15">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G15">
+        <v>0.06082233333333334</v>
+      </c>
+      <c r="H15">
+        <v>0.182467</v>
+      </c>
+      <c r="I15">
+        <v>0.0003201374858976194</v>
+      </c>
+      <c r="J15">
+        <v>0.0003269427250482888</v>
+      </c>
+      <c r="K15">
+        <v>1</v>
+      </c>
+      <c r="L15">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M15">
+        <v>0.03413666666666667</v>
+      </c>
+      <c r="N15">
+        <v>0.10241</v>
+      </c>
+      <c r="O15">
+        <v>0.0002325915501781441</v>
+      </c>
+      <c r="P15">
+        <v>0.0003325624051193711</v>
+      </c>
+      <c r="Q15">
+        <v>0.002076271718888889</v>
+      </c>
+      <c r="R15">
+        <v>0.01868644547</v>
+      </c>
+      <c r="S15">
+        <v>7.446127411506103E-08</v>
+      </c>
+      <c r="T15">
+        <v>1.087288589783402E-07</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
         <v>24</v>
       </c>
-      <c r="D10" t="s">
+      <c r="E16">
+        <v>2</v>
+      </c>
+      <c r="F16">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G16">
+        <v>0.06082233333333334</v>
+      </c>
+      <c r="H16">
+        <v>0.182467</v>
+      </c>
+      <c r="I16">
+        <v>0.0003201374858976194</v>
+      </c>
+      <c r="J16">
+        <v>0.0003269427250482888</v>
+      </c>
+      <c r="K16">
+        <v>2</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>132.35754</v>
+      </c>
+      <c r="N16">
+        <v>264.71508</v>
+      </c>
+      <c r="O16">
+        <v>0.9018234178214739</v>
+      </c>
+      <c r="P16">
+        <v>0.8596258536877913</v>
+      </c>
+      <c r="Q16">
+        <v>8.05029441706</v>
+      </c>
+      <c r="R16">
+        <v>48.30176650236</v>
+      </c>
+      <c r="S16">
+        <v>0.000288707481704965</v>
+      </c>
+      <c r="T16">
+        <v>0.0002810484191266481</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G17">
+        <v>0.042174</v>
+      </c>
+      <c r="H17">
+        <v>0.126522</v>
+      </c>
+      <c r="I17">
+        <v>0.00022198224879424</v>
+      </c>
+      <c r="J17">
+        <v>0.000226700978580015</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>8.819868333333334</v>
+      </c>
+      <c r="N17">
+        <v>26.459605</v>
+      </c>
+      <c r="O17">
+        <v>0.06009452733181694</v>
+      </c>
+      <c r="P17">
+        <v>0.08592393201160566</v>
+      </c>
+      <c r="Q17">
+        <v>0.37196912709</v>
+      </c>
+      <c r="R17">
+        <v>3.34772214381</v>
+      </c>
+      <c r="S17">
+        <v>1.333991831734364E-05</v>
+      </c>
+      <c r="T17">
+        <v>1.947903947047368E-05</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G18">
+        <v>0.042174</v>
+      </c>
+      <c r="H18">
+        <v>0.126522</v>
+      </c>
+      <c r="I18">
+        <v>0.00022198224879424</v>
+      </c>
+      <c r="J18">
+        <v>0.000226700978580015</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>5.485874</v>
+      </c>
+      <c r="N18">
+        <v>16.457622</v>
+      </c>
+      <c r="O18">
+        <v>0.03737822295894862</v>
+      </c>
+      <c r="P18">
+        <v>0.05344386636915803</v>
+      </c>
+      <c r="Q18">
+        <v>0.231361250076</v>
+      </c>
+      <c r="R18">
+        <v>2.082251250684</v>
+      </c>
+      <c r="S18">
+        <v>8.297301988359905E-06</v>
+      </c>
+      <c r="T18">
+        <v>1.211577680498768E-05</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
         <v>22</v>
       </c>
-      <c r="E10">
-        <v>1</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-      <c r="G10">
-        <v>11.3654884633482</v>
-      </c>
-      <c r="H10">
-        <v>11.3654884633482</v>
-      </c>
-      <c r="I10">
-        <v>0.06540467613645728</v>
-      </c>
-      <c r="J10">
-        <v>0.06540467613645728</v>
-      </c>
-      <c r="K10">
-        <v>1</v>
-      </c>
-      <c r="L10">
-        <v>1</v>
-      </c>
-      <c r="M10">
-        <v>131.949570727232</v>
-      </c>
-      <c r="N10">
-        <v>131.949570727232</v>
-      </c>
-      <c r="O10">
-        <v>0.9178826948882181</v>
-      </c>
-      <c r="P10">
-        <v>0.9178826948882181</v>
-      </c>
-      <c r="Q10">
-        <v>1499.671323844103</v>
-      </c>
-      <c r="R10">
-        <v>1499.671323844103</v>
-      </c>
-      <c r="S10">
-        <v>0.06003382039042254</v>
-      </c>
-      <c r="T10">
-        <v>0.06003382039042254</v>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G19">
+        <v>0.042174</v>
+      </c>
+      <c r="H19">
+        <v>0.126522</v>
+      </c>
+      <c r="I19">
+        <v>0.00022198224879424</v>
+      </c>
+      <c r="J19">
+        <v>0.000226700978580015</v>
+      </c>
+      <c r="K19">
+        <v>1</v>
+      </c>
+      <c r="L19">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M19">
+        <v>0.06916233333333334</v>
+      </c>
+      <c r="N19">
+        <v>0.207487</v>
+      </c>
+      <c r="O19">
+        <v>0.0004712403375823903</v>
+      </c>
+      <c r="P19">
+        <v>0.0006737855263255828</v>
+      </c>
+      <c r="Q19">
+        <v>0.002916852246</v>
+      </c>
+      <c r="R19">
+        <v>0.026251670214</v>
+      </c>
+      <c r="S19">
+        <v>1.046069898590958E-07</v>
+      </c>
+      <c r="T19">
+        <v>1.527478381710601E-07</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+      <c r="F20">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G20">
+        <v>0.042174</v>
+      </c>
+      <c r="H20">
+        <v>0.126522</v>
+      </c>
+      <c r="I20">
+        <v>0.00022198224879424</v>
+      </c>
+      <c r="J20">
+        <v>0.000226700978580015</v>
+      </c>
+      <c r="K20">
+        <v>1</v>
+      </c>
+      <c r="L20">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M20">
+        <v>0.03413666666666667</v>
+      </c>
+      <c r="N20">
+        <v>0.10241</v>
+      </c>
+      <c r="O20">
+        <v>0.0002325915501781441</v>
+      </c>
+      <c r="P20">
+        <v>0.0003325624051193711</v>
+      </c>
+      <c r="Q20">
+        <v>0.00143967978</v>
+      </c>
+      <c r="R20">
+        <v>0.01295711802</v>
+      </c>
+      <c r="S20">
+        <v>5.163119535908274E-08</v>
+      </c>
+      <c r="T20">
+        <v>7.53922226794848E-08</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="F21">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G21">
+        <v>0.042174</v>
+      </c>
+      <c r="H21">
+        <v>0.126522</v>
+      </c>
+      <c r="I21">
+        <v>0.00022198224879424</v>
+      </c>
+      <c r="J21">
+        <v>0.000226700978580015</v>
+      </c>
+      <c r="K21">
+        <v>2</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>132.35754</v>
+      </c>
+      <c r="N21">
+        <v>264.71508</v>
+      </c>
+      <c r="O21">
+        <v>0.9018234178214739</v>
+      </c>
+      <c r="P21">
+        <v>0.8596258536877913</v>
+      </c>
+      <c r="Q21">
+        <v>5.582046891959999</v>
+      </c>
+      <c r="R21">
+        <v>33.49228135176</v>
+      </c>
+      <c r="S21">
+        <v>0.0002001887903033183</v>
+      </c>
+      <c r="T21">
+        <v>0.0001948780222437031</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>2</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>11.8636825</v>
+      </c>
+      <c r="H22">
+        <v>23.727365</v>
+      </c>
+      <c r="I22">
+        <v>0.06244432399892993</v>
+      </c>
+      <c r="J22">
+        <v>0.04251447862526041</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>8.819868333333334</v>
+      </c>
+      <c r="N22">
+        <v>26.459605</v>
+      </c>
+      <c r="O22">
+        <v>0.06009452733181694</v>
+      </c>
+      <c r="P22">
+        <v>0.08592393201160566</v>
+      </c>
+      <c r="Q22">
+        <v>104.6361175984708</v>
+      </c>
+      <c r="R22">
+        <v>627.816705590825</v>
+      </c>
+      <c r="S22">
+        <v>0.003752562135270527</v>
+      </c>
+      <c r="T22">
+        <v>0.003653011170905737</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>2</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>11.8636825</v>
+      </c>
+      <c r="H23">
+        <v>23.727365</v>
+      </c>
+      <c r="I23">
+        <v>0.06244432399892993</v>
+      </c>
+      <c r="J23">
+        <v>0.04251447862526041</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>5.485874</v>
+      </c>
+      <c r="N23">
+        <v>16.457622</v>
+      </c>
+      <c r="O23">
+        <v>0.03737822295894862</v>
+      </c>
+      <c r="P23">
+        <v>0.05344386636915803</v>
+      </c>
+      <c r="Q23">
+        <v>65.082667371005</v>
+      </c>
+      <c r="R23">
+        <v>390.49600422603</v>
+      </c>
+      <c r="S23">
+        <v>0.002334057864952829</v>
+      </c>
+      <c r="T23">
+        <v>0.002272138114402843</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24">
+        <v>2</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>11.8636825</v>
+      </c>
+      <c r="H24">
+        <v>23.727365</v>
+      </c>
+      <c r="I24">
+        <v>0.06244432399892993</v>
+      </c>
+      <c r="J24">
+        <v>0.04251447862526041</v>
+      </c>
+      <c r="K24">
+        <v>1</v>
+      </c>
+      <c r="L24">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M24">
+        <v>0.06916233333333334</v>
+      </c>
+      <c r="N24">
+        <v>0.207487</v>
+      </c>
+      <c r="O24">
+        <v>0.0004712403375823903</v>
+      </c>
+      <c r="P24">
+        <v>0.0006737855263255828</v>
+      </c>
+      <c r="Q24">
+        <v>0.8205199636258333</v>
+      </c>
+      <c r="R24">
+        <v>4.923119781755</v>
+      </c>
+      <c r="S24">
+        <v>2.942628432135989E-05</v>
+      </c>
+      <c r="T24">
+        <v>2.864564035697883E-05</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25">
+        <v>2</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>11.8636825</v>
+      </c>
+      <c r="H25">
+        <v>23.727365</v>
+      </c>
+      <c r="I25">
+        <v>0.06244432399892993</v>
+      </c>
+      <c r="J25">
+        <v>0.04251447862526041</v>
+      </c>
+      <c r="K25">
+        <v>1</v>
+      </c>
+      <c r="L25">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M25">
+        <v>0.03413666666666667</v>
+      </c>
+      <c r="N25">
+        <v>0.10241</v>
+      </c>
+      <c r="O25">
+        <v>0.0002325915501781441</v>
+      </c>
+      <c r="P25">
+        <v>0.0003325624051193711</v>
+      </c>
+      <c r="Q25">
+        <v>0.4049865749416667</v>
+      </c>
+      <c r="R25">
+        <v>2.42991944965</v>
+      </c>
+      <c r="S25">
+        <v>1.45240221187374E-05</v>
+      </c>
+      <c r="T25">
+        <v>1.413871726401269E-05</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26">
+        <v>2</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>11.8636825</v>
+      </c>
+      <c r="H26">
+        <v>23.727365</v>
+      </c>
+      <c r="I26">
+        <v>0.06244432399892993</v>
+      </c>
+      <c r="J26">
+        <v>0.04251447862526041</v>
+      </c>
+      <c r="K26">
+        <v>2</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>132.35754</v>
+      </c>
+      <c r="N26">
+        <v>264.71508</v>
+      </c>
+      <c r="O26">
+        <v>0.9018234178214739</v>
+      </c>
+      <c r="P26">
+        <v>0.8596258536877913</v>
+      </c>
+      <c r="Q26">
+        <v>1570.24783104105</v>
+      </c>
+      <c r="R26">
+        <v>6280.9913241642</v>
+      </c>
+      <c r="S26">
+        <v>0.05631375369226648</v>
+      </c>
+      <c r="T26">
+        <v>0.03654654498233083</v>
       </c>
     </row>
   </sheetData>
